--- a/image/operationdefinition.xlsx
+++ b/image/operationdefinition.xlsx
@@ -1220,45 +1220,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.73828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.9453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.50390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.80859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="115.62109375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.40625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="51.140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="114.60546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.1484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="52.3125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="33.35546875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="33.96875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/operationdefinition.xlsx
+++ b/image/operationdefinition.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2269" uniqueCount="342">
   <si>
     <t>Path</t>
   </si>
@@ -165,7 +165,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -359,10 +359,6 @@
   </si>
   <si>
     <t>OperationDefinition.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the operation definition</t>
@@ -1220,45 +1216,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.80859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.50390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="114.60546875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.1484375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="52.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="115.62109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.40625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="51.140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="33.96875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="33.35546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="43.69921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2515,16 +2511,16 @@
         <v>49</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2589,13 +2585,13 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>40</v>
@@ -2603,7 +2599,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2626,19 +2622,19 @@
         <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2687,7 +2683,7 @@
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>48</v>
@@ -2696,13 +2692,13 @@
         <v>48</v>
       </c>
       <c r="AH13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>40</v>
@@ -2716,7 +2712,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2739,16 +2735,16 @@
         <v>49</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2798,7 +2794,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2813,7 +2809,7 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
@@ -2827,7 +2823,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2853,13 +2849,13 @@
         <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2885,52 +2881,52 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
+      <c r="AK15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>40</v>
@@ -2938,7 +2934,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2964,13 +2960,13 @@
         <v>67</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2996,52 +2992,52 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
@@ -3049,7 +3045,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3072,19 +3068,19 @@
         <v>49</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3133,7 +3129,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3148,13 +3144,13 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
@@ -3162,11 +3158,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3185,16 +3181,16 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3244,7 +3240,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3259,13 +3255,13 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3273,7 +3269,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3296,19 +3292,19 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3357,7 +3353,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3372,13 +3368,13 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
@@ -3386,7 +3382,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3409,16 +3405,16 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3468,7 +3464,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3483,7 +3479,7 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>40</v>
@@ -3497,7 +3493,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3520,16 +3516,16 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3579,7 +3575,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3594,7 +3590,7 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>40</v>
@@ -3608,7 +3604,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3631,19 +3627,19 @@
         <v>49</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3692,7 +3688,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3707,7 +3703,7 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
@@ -3721,7 +3717,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3744,16 +3740,16 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3779,14 +3775,14 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>191</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3803,7 +3799,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3818,7 +3814,7 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
@@ -3832,7 +3828,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3855,16 +3851,16 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3914,7 +3910,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3929,21 +3925,21 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AK24" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>199</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3966,16 +3962,16 @@
         <v>49</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4025,7 +4021,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4054,7 +4050,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4080,10 +4076,10 @@
         <v>67</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4134,7 +4130,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>48</v>
@@ -4163,7 +4159,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4186,13 +4182,13 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4243,7 +4239,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4272,7 +4268,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4295,16 +4291,16 @@
         <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4354,7 +4350,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4369,7 +4365,7 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>40</v>
@@ -4383,7 +4379,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4409,13 +4405,13 @@
         <v>67</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4441,14 +4437,14 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>221</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4465,7 +4461,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4480,7 +4476,7 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
@@ -4494,7 +4490,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4517,13 +4513,13 @@
         <v>49</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4574,7 +4570,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>48</v>
@@ -4603,7 +4599,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4626,13 +4622,13 @@
         <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4683,7 +4679,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>48</v>
@@ -4712,7 +4708,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4735,13 +4731,13 @@
         <v>49</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4792,7 +4788,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>48</v>
@@ -4821,7 +4817,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4844,16 +4840,16 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4903,7 +4899,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4932,7 +4928,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4955,16 +4951,16 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L34" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="M34" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5014,7 +5010,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5043,7 +5039,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5066,16 +5062,16 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5125,7 +5121,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5137,7 +5133,7 @@
         <v>40</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>40</v>
@@ -5154,7 +5150,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5177,13 +5173,13 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5234,7 +5230,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5263,7 +5259,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5292,7 +5288,7 @@
         <v>94</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>96</v>
@@ -5345,7 +5341,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5374,11 +5370,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5400,10 +5396,10 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>96</v>
@@ -5458,7 +5454,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5487,7 +5483,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5513,13 +5509,13 @@
         <v>67</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5569,7 +5565,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>48</v>
@@ -5598,7 +5594,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5624,13 +5620,13 @@
         <v>67</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -5656,14 +5652,14 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5680,7 +5676,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>48</v>
@@ -5709,7 +5705,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5732,13 +5728,13 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5789,7 +5785,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>48</v>
@@ -5818,7 +5814,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5841,13 +5837,13 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5898,7 +5894,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>48</v>
@@ -5927,7 +5923,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5950,13 +5946,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6007,7 +6003,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6036,7 +6032,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6062,13 +6058,13 @@
         <v>67</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6094,40 +6090,40 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Y44" t="s" s="2">
+      <c r="Z44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH44" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>40</v>
@@ -6147,7 +6143,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6170,16 +6166,16 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6229,7 +6225,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6258,7 +6254,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6284,10 +6280,10 @@
         <v>67</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6314,40 +6310,40 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AH46" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>40</v>
@@ -6367,7 +6363,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6390,13 +6386,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6447,7 +6443,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6459,7 +6455,7 @@
         <v>40</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>40</v>
@@ -6476,7 +6472,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6499,13 +6495,13 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6556,7 +6552,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6585,7 +6581,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6614,7 +6610,7 @@
         <v>94</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>96</v>
@@ -6667,7 +6663,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6696,11 +6692,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6722,10 +6718,10 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>96</v>
@@ -6780,7 +6776,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6809,11 +6805,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6835,13 +6831,13 @@
         <v>67</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6867,14 +6863,14 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>308</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>40</v>
       </c>
@@ -6891,7 +6887,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>48</v>
@@ -6920,7 +6916,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6943,16 +6939,16 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7002,7 +6998,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>48</v>
@@ -7031,7 +7027,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7054,16 +7050,16 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7113,7 +7109,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7125,7 +7121,7 @@
         <v>40</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>40</v>
@@ -7142,7 +7138,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7165,13 +7161,13 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7222,7 +7218,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7251,7 +7247,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7280,7 +7276,7 @@
         <v>94</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>96</v>
@@ -7333,7 +7329,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7362,11 +7358,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7388,10 +7384,10 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>96</v>
@@ -7446,7 +7442,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7475,7 +7471,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7498,13 +7494,13 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7555,7 +7551,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>48</v>
@@ -7584,7 +7580,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7607,13 +7603,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7664,7 +7660,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7693,7 +7689,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7719,13 +7715,13 @@
         <v>40</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L59" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="M59" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7775,7 +7771,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7784,7 +7780,7 @@
         <v>42</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>40</v>
@@ -7804,7 +7800,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7827,16 +7823,16 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -7886,7 +7882,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -7898,7 +7894,7 @@
         <v>40</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>40</v>
@@ -7915,7 +7911,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7938,13 +7934,13 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7995,7 +7991,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8024,7 +8020,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8053,7 +8049,7 @@
         <v>94</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>96</v>
@@ -8106,7 +8102,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8135,11 +8131,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8161,10 +8157,10 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>96</v>
@@ -8219,7 +8215,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8248,7 +8244,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8271,13 +8267,13 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8328,7 +8324,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8357,7 +8353,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8380,13 +8376,13 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8437,7 +8433,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
